--- a/xlsx/绿色计算_intext.xlsx
+++ b/xlsx/绿色计算_intext.xlsx
@@ -29,7 +29,7 @@
     <t>计算机系统</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_绿色计算</t>
+    <t>政策_政策_混合动力车辆_绿色计算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
